--- a/ESPN sports website/IPL/Delhi Capitals/Prithvi Shaw.xlsx
+++ b/ESPN sports website/IPL/Delhi Capitals/Prithvi Shaw.xlsx
@@ -445,31 +445,31 @@
         <v>Prithvi Shaw</v>
       </c>
       <c r="C2" t="str">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D2" t="str">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E2" t="str">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F2" t="str">
         <v>2</v>
       </c>
       <c r="G2" t="str">
-        <v>179.41</v>
+        <v>158.33</v>
       </c>
       <c r="H2" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I2" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J2" t="str">
-        <v>April 07, 2022</v>
+        <v>March 27, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Super Giants won by 6 wickets (with 2 balls remaining)</v>
+        <v>Capitals won by 4 wickets (with 10 balls remaining)</v>
       </c>
     </row>
     <row r="3">
@@ -480,31 +480,31 @@
         <v>Prithvi Shaw</v>
       </c>
       <c r="C3" t="str">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D3" t="str">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" t="str">
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <v>123.07</v>
+        <v>205.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I3" t="str">
-        <v>Wankhede</v>
+        <v>Brabourne</v>
       </c>
       <c r="J3" t="str">
-        <v>April 16, 2022</v>
+        <v>April 20, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>RCB won by 16 runs</v>
+        <v>Capitals won by 9 wickets (with 57 balls remaining)</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Prithvi Shaw</v>
       </c>
       <c r="C4" t="str">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D4" t="str">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E4" t="str">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" t="str">
         <v>2</v>
       </c>
       <c r="G4" t="str">
-        <v>175.86</v>
+        <v>179.41</v>
       </c>
       <c r="H4" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I4" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J4" t="str">
-        <v>April 10, 2022</v>
+        <v>April 07, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Capitals won by 44 runs</v>
+        <v>Super Giants won by 6 wickets (with 2 balls remaining)</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>Prithvi Shaw</v>
       </c>
       <c r="C5" t="str">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D5" t="str">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E5" t="str">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" t="str">
         <v>1</v>
       </c>
       <c r="G5" t="str">
-        <v>137.03</v>
+        <v>123.07</v>
       </c>
       <c r="H5" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I5" t="str">
         <v>Wankhede</v>
       </c>
       <c r="J5" t="str">
-        <v>April 22, 2022</v>
+        <v>April 16, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Royals won by 15 runs</v>
+        <v>RCB won by 16 runs</v>
       </c>
     </row>
     <row r="6">
@@ -585,31 +585,31 @@
         <v>Prithvi Shaw</v>
       </c>
       <c r="C6" t="str">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D6" t="str">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E6" t="str">
+        <v>2</v>
+      </c>
+      <c r="F6" t="str">
         <v>1</v>
       </c>
-      <c r="F6" t="str">
-        <v>0</v>
-      </c>
       <c r="G6" t="str">
-        <v>142.85</v>
+        <v>104.34</v>
       </c>
       <c r="H6" t="str">
-        <v>Gujarat Titans</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I6" t="str">
-        <v>Pune</v>
+        <v>Wankhede</v>
       </c>
       <c r="J6" t="str">
-        <v>April 02, 2022</v>
+        <v>May 21, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Titans won by 14 runs</v>
+        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
       </c>
     </row>
     <row r="7">
@@ -620,31 +620,31 @@
         <v>Prithvi Shaw</v>
       </c>
       <c r="C7" t="str">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D7" t="str">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E7" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="str">
-        <v>158.33</v>
+        <v>71.42</v>
       </c>
       <c r="H7" t="str">
-        <v>Mumbai Indians</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I7" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J7" t="str">
-        <v>March 27, 2022</v>
+        <v>May 01, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>Capitals won by 4 wickets (with 10 balls remaining)</v>
+        <v>Super Giants won by 6 runs</v>
       </c>
     </row>
     <row r="8">
@@ -655,31 +655,31 @@
         <v>Prithvi Shaw</v>
       </c>
       <c r="C8" t="str">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D8" t="str">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E8" t="str">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F8" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="str">
-        <v>0.00</v>
+        <v>175.86</v>
       </c>
       <c r="H8" t="str">
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="I8" t="str">
-        <v>Wankhede</v>
+        <v>Brabourne</v>
       </c>
       <c r="J8" t="str">
-        <v>April 28, 2022</v>
+        <v>April 10, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
+        <v>Capitals won by 44 runs</v>
       </c>
     </row>
     <row r="9">
@@ -690,31 +690,31 @@
         <v>Prithvi Shaw</v>
       </c>
       <c r="C9" t="str">
+        <v>37</v>
+      </c>
+      <c r="D9" t="str">
+        <v>27</v>
+      </c>
+      <c r="E9" t="str">
         <v>5</v>
       </c>
-      <c r="D9" t="str">
-        <v>7</v>
-      </c>
-      <c r="E9" t="str">
+      <c r="F9" t="str">
         <v>1</v>
       </c>
-      <c r="F9" t="str">
-        <v>0</v>
-      </c>
       <c r="G9" t="str">
-        <v>71.42</v>
+        <v>137.03</v>
       </c>
       <c r="H9" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I9" t="str">
         <v>Wankhede</v>
       </c>
       <c r="J9" t="str">
-        <v>May 01, 2022</v>
+        <v>April 22, 2022</v>
       </c>
       <c r="K9" t="str">
-        <v>Super Giants won by 6 runs</v>
+        <v>Royals won by 15 runs</v>
       </c>
     </row>
     <row r="10">
@@ -725,31 +725,31 @@
         <v>Prithvi Shaw</v>
       </c>
       <c r="C10" t="str">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D10" t="str">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E10" t="str">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F10" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="str">
-        <v>205.00</v>
+        <v>0.00</v>
       </c>
       <c r="H10" t="str">
-        <v>Punjab Kings</v>
+        <v>Kolkata Knight Riders</v>
       </c>
       <c r="I10" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J10" t="str">
-        <v>April 20, 2022</v>
+        <v>April 28, 2022</v>
       </c>
       <c r="K10" t="str">
-        <v>Capitals won by 9 wickets (with 57 balls remaining)</v>
+        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
       </c>
     </row>
     <row r="11">
@@ -760,31 +760,31 @@
         <v>Prithvi Shaw</v>
       </c>
       <c r="C11" t="str">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D11" t="str">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E11" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="str">
-        <v>104.34</v>
+        <v>142.85</v>
       </c>
       <c r="H11" t="str">
-        <v>Mumbai Indians</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I11" t="str">
-        <v>Wankhede</v>
+        <v>Pune</v>
       </c>
       <c r="J11" t="str">
-        <v>May 21, 2022</v>
+        <v>April 02, 2022</v>
       </c>
       <c r="K11" t="str">
-        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
+        <v>Titans won by 14 runs</v>
       </c>
     </row>
   </sheetData>
